--- a/simulation_data/one_step_algorithm/1s_error_level_15_percent_water_99.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_15_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.11627211292529</v>
+        <v>90.04163774704303</v>
       </c>
       <c r="D2" t="n">
-        <v>1.420916881006707</v>
+        <v>1.458547711787065</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.8740387169622</v>
+        <v>88.98917717222029</v>
       </c>
       <c r="D3" t="n">
-        <v>1.689194317353201</v>
+        <v>1.606928781597103</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.11755748744545</v>
+        <v>87.8861876896883</v>
       </c>
       <c r="D4" t="n">
-        <v>1.497456147468333</v>
+        <v>1.620091415865723</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.89536116335326</v>
+        <v>86.97883701312593</v>
       </c>
       <c r="D5" t="n">
-        <v>1.640057760792104</v>
+        <v>1.746387970742795</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.76705923477442</v>
+        <v>86.18043215438045</v>
       </c>
       <c r="D6" t="n">
-        <v>1.581056596168336</v>
+        <v>1.651231315326885</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.69610392373687</v>
+        <v>85.03921195836864</v>
       </c>
       <c r="D7" t="n">
-        <v>1.554756859131854</v>
+        <v>1.682068812335444</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.67408209182422</v>
+        <v>83.97295283544162</v>
       </c>
       <c r="D8" t="n">
-        <v>1.540137999223938</v>
+        <v>1.607230299118863</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.08535907797172</v>
+        <v>82.92751663604884</v>
       </c>
       <c r="D9" t="n">
-        <v>1.762021726954817</v>
+        <v>1.860706007673066</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.08964903344304</v>
+        <v>82.15549367455203</v>
       </c>
       <c r="D10" t="n">
-        <v>1.775779156441976</v>
+        <v>1.391237761018177</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.1815793641458</v>
+        <v>80.74283512595257</v>
       </c>
       <c r="D11" t="n">
-        <v>1.795103653879435</v>
+        <v>1.678440479793853</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.84329217286633</v>
+        <v>80.08933292060368</v>
       </c>
       <c r="D12" t="n">
-        <v>1.782301167329381</v>
+        <v>1.690498646721741</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.05357758883468</v>
+        <v>79.10142995195277</v>
       </c>
       <c r="D13" t="n">
-        <v>1.878780496849385</v>
+        <v>1.826280136302695</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.0855238344748</v>
+        <v>78.30588530886725</v>
       </c>
       <c r="D14" t="n">
-        <v>1.993631353953617</v>
+        <v>1.817753752890736</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.94136159698486</v>
+        <v>77.00742063631753</v>
       </c>
       <c r="D15" t="n">
-        <v>2.295364507568586</v>
+        <v>1.830385053086143</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.20300461007797</v>
+        <v>75.77569437851685</v>
       </c>
       <c r="D16" t="n">
-        <v>1.810226539401907</v>
+        <v>1.916527392316005</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.89513751540233</v>
+        <v>75.05528227699841</v>
       </c>
       <c r="D17" t="n">
-        <v>1.929085087050957</v>
+        <v>1.712269679702317</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.72941967492872</v>
+        <v>73.89851833160122</v>
       </c>
       <c r="D18" t="n">
-        <v>1.95481878669786</v>
+        <v>2.033783706891339</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.80338250690603</v>
+        <v>72.93161875641326</v>
       </c>
       <c r="D19" t="n">
-        <v>2.005941111635843</v>
+        <v>2.015893669647487</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.75830126030391</v>
+        <v>72.0021955733651</v>
       </c>
       <c r="D20" t="n">
-        <v>2.358761955109155</v>
+        <v>2.114494145409519</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.60237157397252</v>
+        <v>70.97021258523745</v>
       </c>
       <c r="D21" t="n">
-        <v>2.195215790627634</v>
+        <v>2.304375001777066</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.90722037386757</v>
+        <v>69.84655960281668</v>
       </c>
       <c r="D22" t="n">
-        <v>2.228773303929773</v>
+        <v>2.192188827008764</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.67830984738714</v>
+        <v>69.3370883278134</v>
       </c>
       <c r="D23" t="n">
-        <v>2.520700938975406</v>
+        <v>2.01147221516719</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.860415681923</v>
+        <v>67.61375786677969</v>
       </c>
       <c r="D24" t="n">
-        <v>2.378782706180429</v>
+        <v>2.216987137135258</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.82863608066879</v>
+        <v>67.24142345525195</v>
       </c>
       <c r="D25" t="n">
-        <v>2.113762714343255</v>
+        <v>2.166925531533681</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.01203130049576</v>
+        <v>65.84880895093234</v>
       </c>
       <c r="D26" t="n">
-        <v>2.529295884997086</v>
+        <v>2.247880580077717</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.73671869251346</v>
+        <v>64.70718395374215</v>
       </c>
       <c r="D27" t="n">
-        <v>2.28364216199458</v>
+        <v>2.550384318908236</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.63138318918313</v>
+        <v>63.73925704922421</v>
       </c>
       <c r="D28" t="n">
-        <v>2.149408238465808</v>
+        <v>2.424368264765357</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.96975071109765</v>
+        <v>63.14928612677919</v>
       </c>
       <c r="D29" t="n">
-        <v>2.342588744109443</v>
+        <v>2.398702581526406</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.99458627373181</v>
+        <v>61.41884945583986</v>
       </c>
       <c r="D30" t="n">
-        <v>2.384858139250383</v>
+        <v>2.26112744051811</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.81485796496383</v>
+        <v>60.72012755696129</v>
       </c>
       <c r="D31" t="n">
-        <v>2.502805172896675</v>
+        <v>2.374021899838014</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.76922905297155</v>
+        <v>59.97922314004787</v>
       </c>
       <c r="D32" t="n">
-        <v>2.627825208195602</v>
+        <v>2.42581020377535</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.64466300800943</v>
+        <v>59.00250462676424</v>
       </c>
       <c r="D33" t="n">
-        <v>2.419061178536959</v>
+        <v>2.585513548973605</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.84457763995017</v>
+        <v>57.9674966649761</v>
       </c>
       <c r="D34" t="n">
-        <v>2.428057868480811</v>
+        <v>2.494138629028402</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.98796698816426</v>
+        <v>56.90939480642893</v>
       </c>
       <c r="D35" t="n">
-        <v>2.97951532740239</v>
+        <v>2.688489531865361</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.12951352528603</v>
+        <v>55.8128752505416</v>
       </c>
       <c r="D36" t="n">
-        <v>2.820521431276964</v>
+        <v>2.838424417999688</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.22478450149886</v>
+        <v>54.79781684683221</v>
       </c>
       <c r="D37" t="n">
-        <v>2.492684642525347</v>
+        <v>2.421312518018641</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.06801804474052</v>
+        <v>53.72163678661933</v>
       </c>
       <c r="D38" t="n">
-        <v>3.00120773667386</v>
+        <v>2.701932503751633</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.63356411268677</v>
+        <v>53.02972006268296</v>
       </c>
       <c r="D39" t="n">
-        <v>2.503505187259311</v>
+        <v>2.802182851786943</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.86634091479085</v>
+        <v>51.6259324301436</v>
       </c>
       <c r="D40" t="n">
-        <v>2.729042275289472</v>
+        <v>2.792477640786837</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.16536175766084</v>
+        <v>51.16097867132564</v>
       </c>
       <c r="D41" t="n">
-        <v>2.800679659808032</v>
+        <v>2.782619613096581</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.55879873433787</v>
+        <v>49.90487153590702</v>
       </c>
       <c r="D42" t="n">
-        <v>2.92377158595236</v>
+        <v>2.883117992495986</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.92808460566552</v>
+        <v>48.56754311219341</v>
       </c>
       <c r="D43" t="n">
-        <v>3.095444816072996</v>
+        <v>3.119326769577002</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.82817861031504</v>
+        <v>48.06829293804263</v>
       </c>
       <c r="D44" t="n">
-        <v>2.861155349526626</v>
+        <v>2.918940452193427</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.59589969394074</v>
+        <v>46.99548210880871</v>
       </c>
       <c r="D45" t="n">
-        <v>3.096425202708195</v>
+        <v>2.634805410077532</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.82639727966347</v>
+        <v>45.85770105062237</v>
       </c>
       <c r="D46" t="n">
-        <v>3.366788446029445</v>
+        <v>2.949620962240632</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.75297293899811</v>
+        <v>45.32623272970933</v>
       </c>
       <c r="D47" t="n">
-        <v>3.242821560670158</v>
+        <v>2.761092158385651</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.34896333962089</v>
+        <v>43.78194724979432</v>
       </c>
       <c r="D48" t="n">
-        <v>3.209614163327711</v>
+        <v>3.018833590967998</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.7320557468243</v>
+        <v>42.9703619277002</v>
       </c>
       <c r="D49" t="n">
-        <v>3.177377804279328</v>
+        <v>3.097034288508849</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.98958311075787</v>
+        <v>40.82935213951421</v>
       </c>
       <c r="D50" t="n">
-        <v>2.982003180229668</v>
+        <v>3.089839745686446</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.01541380221859</v>
+        <v>40.67029495274459</v>
       </c>
       <c r="D51" t="n">
-        <v>3.109516004332941</v>
+        <v>3.578198400000322</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.82420330158558</v>
+        <v>39.7031532097287</v>
       </c>
       <c r="D52" t="n">
-        <v>3.261959063774429</v>
+        <v>3.269822161061758</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.21649637870319</v>
+        <v>39.14446324865791</v>
       </c>
       <c r="D53" t="n">
-        <v>3.337684691268431</v>
+        <v>2.889756008015577</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.6081594606941</v>
+        <v>38.03959042416403</v>
       </c>
       <c r="D54" t="n">
-        <v>3.287372779314937</v>
+        <v>2.956375895431324</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>35.89762775891165</v>
+        <v>36.51245674072893</v>
       </c>
       <c r="D55" t="n">
-        <v>3.822846853994047</v>
+        <v>3.195281810310743</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.90539215552261</v>
+        <v>35.79452802086934</v>
       </c>
       <c r="D56" t="n">
-        <v>3.003446843729612</v>
+        <v>3.457047574274667</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.29948185129817</v>
+        <v>34.63534756105167</v>
       </c>
       <c r="D57" t="n">
-        <v>3.489876044793303</v>
+        <v>3.486572338424224</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.71715113511293</v>
+        <v>33.94890634867073</v>
       </c>
       <c r="D58" t="n">
-        <v>3.215363970735591</v>
+        <v>3.349610289308537</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.20159135647967</v>
+        <v>32.95833940233164</v>
       </c>
       <c r="D59" t="n">
-        <v>3.268462312990829</v>
+        <v>3.338612945039318</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.19406552991665</v>
+        <v>32.20189083834012</v>
       </c>
       <c r="D60" t="n">
-        <v>3.415502376276254</v>
+        <v>3.172257064082638</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.95553278860733</v>
+        <v>30.83010648706775</v>
       </c>
       <c r="D61" t="n">
-        <v>3.415935863916951</v>
+        <v>3.449285362158913</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.25408768225092</v>
+        <v>29.70596628147515</v>
       </c>
       <c r="D62" t="n">
-        <v>3.483940777550496</v>
+        <v>3.903152608982134</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.82030072520243</v>
+        <v>28.98212122522502</v>
       </c>
       <c r="D63" t="n">
-        <v>3.990965616636159</v>
+        <v>2.776835533672911</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.39652643053639</v>
+        <v>27.97323592300479</v>
       </c>
       <c r="D64" t="n">
-        <v>3.504005817894033</v>
+        <v>3.823684324018633</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.78602326061295</v>
+        <v>26.37055168686441</v>
       </c>
       <c r="D65" t="n">
-        <v>3.850072887410125</v>
+        <v>3.883545676084251</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.69948108897773</v>
+        <v>26.12087851673287</v>
       </c>
       <c r="D66" t="n">
-        <v>3.494706700291215</v>
+        <v>3.656671766607294</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.85944509231333</v>
+        <v>25.28013901584977</v>
       </c>
       <c r="D67" t="n">
-        <v>4.53343951339291</v>
+        <v>3.505981039372613</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.48348046116221</v>
+        <v>23.71828597914593</v>
       </c>
       <c r="D68" t="n">
-        <v>3.279258681758741</v>
+        <v>3.641978039743929</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.60424460946279</v>
+        <v>23.36697135979226</v>
       </c>
       <c r="D69" t="n">
-        <v>3.73290915441306</v>
+        <v>3.719235768353323</v>
       </c>
     </row>
   </sheetData>
